--- a/Teste.xlsx
+++ b/Teste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monica\Documents\Programação\Programação C#\TrabalhandoComCSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89E096A-F4DE-4ACA-9D27-9ED497A40E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFC30C7-867B-4AC7-B245-DF52D5440535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5115" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{0E21A670-29AA-493A-8101-7A9192A54A3A}"/>
   </bookViews>
@@ -25,9 +25,396 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
-  <si>
-    <t>teste</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="130">
+  <si>
+    <t>555.555.555-55</t>
+  </si>
+  <si>
+    <t>Luiz Pereira</t>
+  </si>
+  <si>
+    <t>Masculino</t>
+  </si>
+  <si>
+    <t>Travessa das Pedras</t>
+  </si>
+  <si>
+    <t>(21) 87654-3210</t>
+  </si>
+  <si>
+    <t>Parque das Árvores</t>
+  </si>
+  <si>
+    <t>21.543-987</t>
+  </si>
+  <si>
+    <t>Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>RJ</t>
+  </si>
+  <si>
+    <t>666.666.666-66</t>
+  </si>
+  <si>
+    <t>Carla Santos</t>
+  </si>
+  <si>
+    <t>Feminino</t>
+  </si>
+  <si>
+    <t>Rua dos Girassóis</t>
+  </si>
+  <si>
+    <t>(81) 23456-7890</t>
+  </si>
+  <si>
+    <t>Vila Esperança</t>
+  </si>
+  <si>
+    <t>81.234-567</t>
+  </si>
+  <si>
+    <t>Recife</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>777.777.777-77</t>
+  </si>
+  <si>
+    <t>Rafaela Lima</t>
+  </si>
+  <si>
+    <t>Avenida das Acácias</t>
+  </si>
+  <si>
+    <t>(47) 65432-1098</t>
+  </si>
+  <si>
+    <t>Alvorada</t>
+  </si>
+  <si>
+    <t>47.890-234</t>
+  </si>
+  <si>
+    <t>Blumenau</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>888.888.888-88</t>
+  </si>
+  <si>
+    <t>André Souza</t>
+  </si>
+  <si>
+    <t>Rua das Mangueiras</t>
+  </si>
+  <si>
+    <t>(19) 34567-8901</t>
+  </si>
+  <si>
+    <t>Jardim América</t>
+  </si>
+  <si>
+    <t>19.876-543</t>
+  </si>
+  <si>
+    <t>Campinas</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>999.999.999-99</t>
+  </si>
+  <si>
+    <t>Fernanda Costa</t>
+  </si>
+  <si>
+    <t>Alameda dos Ipês</t>
+  </si>
+  <si>
+    <t>(32) 78901-2345</t>
+  </si>
+  <si>
+    <t>Centro</t>
+  </si>
+  <si>
+    <t>32.109-876</t>
+  </si>
+  <si>
+    <t>Juiz de Fora</t>
+  </si>
+  <si>
+    <t>MG</t>
+  </si>
+  <si>
+    <t>101.101.101-01</t>
+  </si>
+  <si>
+    <t>Lucas Oliveira</t>
+  </si>
+  <si>
+    <t>Rua das Palmeiras</t>
+  </si>
+  <si>
+    <t>(51) 43210-9876</t>
+  </si>
+  <si>
+    <t>Jardim Botânico</t>
+  </si>
+  <si>
+    <t>51.210-987</t>
+  </si>
+  <si>
+    <t>Porto Alegre</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>212.212.212-12</t>
+  </si>
+  <si>
+    <t>Juliana Mendes</t>
+  </si>
+  <si>
+    <t>Avenida dos Flamboyants</t>
+  </si>
+  <si>
+    <t>(82) 10987-6543</t>
+  </si>
+  <si>
+    <t>82.543-210</t>
+  </si>
+  <si>
+    <t>Maceió</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>323.323.323-23</t>
+  </si>
+  <si>
+    <t>Paulo Nunes</t>
+  </si>
+  <si>
+    <t>Travessa dos Coqueiros</t>
+  </si>
+  <si>
+    <t>(55) 67890-1234</t>
+  </si>
+  <si>
+    <t>Novo Horizonte</t>
+  </si>
+  <si>
+    <t>55.678-901</t>
+  </si>
+  <si>
+    <t>Caxias do Sul</t>
+  </si>
+  <si>
+    <t>434.434.434-34</t>
+  </si>
+  <si>
+    <t>Larissa Silva</t>
+  </si>
+  <si>
+    <t>Rua das Rosas</t>
+  </si>
+  <si>
+    <t>(88) 32109-8765</t>
+  </si>
+  <si>
+    <t>Bairro Verde</t>
+  </si>
+  <si>
+    <t>88.765-432</t>
+  </si>
+  <si>
+    <t>Fortaleza</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>545.545.545-45</t>
+  </si>
+  <si>
+    <t>Rodrigo Costa</t>
+  </si>
+  <si>
+    <t>Avenida das Orquídeas</t>
+  </si>
+  <si>
+    <t>(31) 89012-3456</t>
+  </si>
+  <si>
+    <t>Parque das Flores</t>
+  </si>
+  <si>
+    <t>31.098-765</t>
+  </si>
+  <si>
+    <t>Belo Horizonte</t>
+  </si>
+  <si>
+    <t>656.656.656-56</t>
+  </si>
+  <si>
+    <t>Marcela Santos</t>
+  </si>
+  <si>
+    <t>Rua das Azaleias</t>
+  </si>
+  <si>
+    <t>(41) 21098-7654</t>
+  </si>
+  <si>
+    <t>41.098-765</t>
+  </si>
+  <si>
+    <t>Curitiba</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>767.767.767-67</t>
+  </si>
+  <si>
+    <t>Gustavo Almeida</t>
+  </si>
+  <si>
+    <t>Alameda das Violetas</t>
+  </si>
+  <si>
+    <t>(27) 54321-0987</t>
+  </si>
+  <si>
+    <t>Jardim das Acácias</t>
+  </si>
+  <si>
+    <t>27.654-321</t>
+  </si>
+  <si>
+    <t>Vitória</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>878.878.878-78</t>
+  </si>
+  <si>
+    <t>Daniela Lima</t>
+  </si>
+  <si>
+    <t>Rua dos Lírios</t>
+  </si>
+  <si>
+    <t>(84) 43210-9876</t>
+  </si>
+  <si>
+    <t>Bairro Novo</t>
+  </si>
+  <si>
+    <t>84.210-987</t>
+  </si>
+  <si>
+    <t>Natal</t>
+  </si>
+  <si>
+    <t>RN</t>
+  </si>
+  <si>
+    <t>989.989.989-89</t>
+  </si>
+  <si>
+    <t>Ricardo Oliveira</t>
+  </si>
+  <si>
+    <t>Avenida das Hortênsias</t>
+  </si>
+  <si>
+    <t>(83) 32109-8765</t>
+  </si>
+  <si>
+    <t>83.109-876</t>
+  </si>
+  <si>
+    <t>João Pessoa</t>
+  </si>
+  <si>
+    <t>PB</t>
+  </si>
+  <si>
+    <t>090.090.090-90</t>
+  </si>
+  <si>
+    <t>Patrícia Souza</t>
+  </si>
+  <si>
+    <t>Travessa das Violetas</t>
+  </si>
+  <si>
+    <t>(53) 67890-1234</t>
+  </si>
+  <si>
+    <t>Parque das Palmeiras</t>
+  </si>
+  <si>
+    <t>53.890-123</t>
+  </si>
+  <si>
+    <t>Pelotas</t>
+  </si>
+  <si>
+    <t>202.202.202-20</t>
+  </si>
+  <si>
+    <t>Marcos Santos</t>
+  </si>
+  <si>
+    <t>Rua das Bromélias</t>
+  </si>
+  <si>
+    <t>(98) 90123-4567</t>
+  </si>
+  <si>
+    <t>98.321-098</t>
+  </si>
+  <si>
+    <t>São Luís</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>313.313.313-31</t>
+  </si>
+  <si>
+    <t>Ana Paula Costa</t>
+  </si>
+  <si>
+    <t>Avenida das Magnólias</t>
+  </si>
+  <si>
+    <t>(68) 54321-0987</t>
+  </si>
+  <si>
+    <t>68.765-432</t>
+  </si>
+  <si>
+    <t>Rio Branco</t>
+  </si>
+  <si>
+    <t>AC</t>
   </si>
 </sst>
 </file>
@@ -379,22 +766,1738 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{885DDA9C-D252-4D72-ABDF-DF8200D235D5}">
-  <dimension ref="A3:K9"/>
+  <dimension ref="D3:X41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3">
+        <v>4</v>
+      </c>
+      <c r="P3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V3" t="s">
+        <v>6</v>
+      </c>
+      <c r="W3" t="s">
+        <v>7</v>
+      </c>
+      <c r="X3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4">
+        <v>5</v>
+      </c>
+      <c r="P4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R4" t="s">
+        <v>11</v>
+      </c>
+      <c r="S4" t="s">
+        <v>12</v>
+      </c>
+      <c r="T4" t="s">
+        <v>13</v>
+      </c>
+      <c r="U4" t="s">
+        <v>14</v>
+      </c>
+      <c r="V4" t="s">
+        <v>15</v>
+      </c>
+      <c r="W4" t="s">
+        <v>16</v>
+      </c>
+      <c r="X4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5">
+        <v>6</v>
+      </c>
+      <c r="P5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>19</v>
+      </c>
+      <c r="R5" t="s">
+        <v>11</v>
+      </c>
+      <c r="S5" t="s">
+        <v>20</v>
+      </c>
+      <c r="T5" t="s">
+        <v>21</v>
+      </c>
+      <c r="U5" t="s">
+        <v>22</v>
+      </c>
+      <c r="V5" t="s">
+        <v>23</v>
+      </c>
+      <c r="W5" t="s">
+        <v>24</v>
+      </c>
+      <c r="X5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6">
+        <v>7</v>
+      </c>
+      <c r="P6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R6" t="s">
+        <v>2</v>
+      </c>
+      <c r="S6" t="s">
+        <v>28</v>
+      </c>
+      <c r="T6" t="s">
+        <v>29</v>
+      </c>
+      <c r="U6" t="s">
+        <v>30</v>
+      </c>
+      <c r="V6" t="s">
+        <v>31</v>
+      </c>
+      <c r="W6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7">
+        <v>8</v>
+      </c>
+      <c r="P7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>35</v>
+      </c>
+      <c r="R7" t="s">
+        <v>11</v>
+      </c>
+      <c r="S7" t="s">
+        <v>36</v>
+      </c>
+      <c r="T7" t="s">
+        <v>37</v>
+      </c>
+      <c r="U7" t="s">
+        <v>38</v>
+      </c>
+      <c r="V7" t="s">
+        <v>39</v>
+      </c>
+      <c r="W7" t="s">
+        <v>40</v>
+      </c>
+      <c r="X7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8" t="s">
+        <v>49</v>
+      </c>
+      <c r="O8">
+        <v>9</v>
+      </c>
+      <c r="P8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R8" t="s">
+        <v>2</v>
+      </c>
+      <c r="S8" t="s">
+        <v>44</v>
+      </c>
+      <c r="T8" t="s">
+        <v>45</v>
+      </c>
+      <c r="U8" t="s">
+        <v>46</v>
+      </c>
+      <c r="V8" t="s">
+        <v>47</v>
+      </c>
+      <c r="W8" t="s">
+        <v>48</v>
+      </c>
+      <c r="X8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" t="s">
+        <v>38</v>
+      </c>
       <c r="K9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" t="s">
+        <v>55</v>
+      </c>
+      <c r="M9" t="s">
+        <v>56</v>
+      </c>
+      <c r="O9">
+        <v>10</v>
+      </c>
+      <c r="P9" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>51</v>
+      </c>
+      <c r="R9" t="s">
+        <v>11</v>
+      </c>
+      <c r="S9" t="s">
+        <v>52</v>
+      </c>
+      <c r="T9" t="s">
+        <v>53</v>
+      </c>
+      <c r="U9" t="s">
+        <v>38</v>
+      </c>
+      <c r="V9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W9" t="s">
+        <v>55</v>
+      </c>
+      <c r="X9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J10" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10" t="s">
+        <v>62</v>
+      </c>
+      <c r="L10" t="s">
+        <v>63</v>
+      </c>
+      <c r="M10" t="s">
+        <v>49</v>
+      </c>
+      <c r="O10">
+        <v>11</v>
+      </c>
+      <c r="P10" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>58</v>
+      </c>
+      <c r="R10" t="s">
+        <v>2</v>
+      </c>
+      <c r="S10" t="s">
+        <v>59</v>
+      </c>
+      <c r="T10" t="s">
+        <v>60</v>
+      </c>
+      <c r="U10" t="s">
+        <v>61</v>
+      </c>
+      <c r="V10" t="s">
+        <v>62</v>
+      </c>
+      <c r="W10" t="s">
+        <v>63</v>
+      </c>
+      <c r="X10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" t="s">
+        <v>69</v>
+      </c>
+      <c r="L11" t="s">
+        <v>70</v>
+      </c>
+      <c r="M11" t="s">
+        <v>71</v>
+      </c>
+      <c r="O11">
+        <v>12</v>
+      </c>
+      <c r="P11" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>65</v>
+      </c>
+      <c r="R11" t="s">
+        <v>11</v>
+      </c>
+      <c r="S11" t="s">
+        <v>66</v>
+      </c>
+      <c r="T11" t="s">
+        <v>67</v>
+      </c>
+      <c r="U11" t="s">
+        <v>68</v>
+      </c>
+      <c r="V11" t="s">
+        <v>69</v>
+      </c>
+      <c r="W11" t="s">
+        <v>70</v>
+      </c>
+      <c r="X11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" t="s">
+        <v>74</v>
+      </c>
+      <c r="I12" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12" t="s">
+        <v>77</v>
+      </c>
+      <c r="L12" t="s">
+        <v>78</v>
+      </c>
+      <c r="M12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O12">
+        <v>13</v>
+      </c>
+      <c r="P12" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>73</v>
+      </c>
+      <c r="R12" t="s">
+        <v>2</v>
+      </c>
+      <c r="S12" t="s">
+        <v>74</v>
+      </c>
+      <c r="T12" t="s">
+        <v>75</v>
+      </c>
+      <c r="U12" t="s">
+        <v>76</v>
+      </c>
+      <c r="V12" t="s">
+        <v>77</v>
+      </c>
+      <c r="W12" t="s">
+        <v>78</v>
+      </c>
+      <c r="X12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" t="s">
+        <v>81</v>
+      </c>
+      <c r="I13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J13" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13" t="s">
+        <v>83</v>
+      </c>
+      <c r="L13" t="s">
+        <v>84</v>
+      </c>
+      <c r="M13" t="s">
+        <v>85</v>
+      </c>
+      <c r="O13">
+        <v>14</v>
+      </c>
+      <c r="P13" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>80</v>
+      </c>
+      <c r="R13" t="s">
+        <v>11</v>
+      </c>
+      <c r="S13" t="s">
+        <v>81</v>
+      </c>
+      <c r="T13" t="s">
+        <v>82</v>
+      </c>
+      <c r="U13" t="s">
+        <v>38</v>
+      </c>
+      <c r="V13" t="s">
+        <v>83</v>
+      </c>
+      <c r="W13" t="s">
+        <v>84</v>
+      </c>
+      <c r="X13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>88</v>
+      </c>
+      <c r="I14" t="s">
+        <v>89</v>
+      </c>
+      <c r="J14" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" t="s">
+        <v>92</v>
+      </c>
+      <c r="M14" t="s">
+        <v>93</v>
+      </c>
+      <c r="O14">
+        <v>15</v>
+      </c>
+      <c r="P14" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>87</v>
+      </c>
+      <c r="R14" t="s">
+        <v>2</v>
+      </c>
+      <c r="S14" t="s">
+        <v>88</v>
+      </c>
+      <c r="T14" t="s">
+        <v>89</v>
+      </c>
+      <c r="U14" t="s">
+        <v>90</v>
+      </c>
+      <c r="V14" t="s">
+        <v>91</v>
+      </c>
+      <c r="W14" t="s">
+        <v>92</v>
+      </c>
+      <c r="X14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" t="s">
+        <v>96</v>
+      </c>
+      <c r="I15" t="s">
+        <v>97</v>
+      </c>
+      <c r="J15" t="s">
+        <v>98</v>
+      </c>
+      <c r="K15" t="s">
+        <v>99</v>
+      </c>
+      <c r="L15" t="s">
+        <v>100</v>
+      </c>
+      <c r="M15" t="s">
+        <v>101</v>
+      </c>
+      <c r="O15">
+        <v>16</v>
+      </c>
+      <c r="P15" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>95</v>
+      </c>
+      <c r="R15" t="s">
+        <v>11</v>
+      </c>
+      <c r="S15" t="s">
+        <v>96</v>
+      </c>
+      <c r="T15" t="s">
+        <v>97</v>
+      </c>
+      <c r="U15" t="s">
+        <v>98</v>
+      </c>
+      <c r="V15" t="s">
+        <v>99</v>
+      </c>
+      <c r="W15" t="s">
+        <v>100</v>
+      </c>
+      <c r="X15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" t="s">
+        <v>104</v>
+      </c>
+      <c r="I16" t="s">
+        <v>105</v>
+      </c>
+      <c r="J16" t="s">
+        <v>38</v>
+      </c>
+      <c r="K16" t="s">
+        <v>106</v>
+      </c>
+      <c r="L16" t="s">
+        <v>107</v>
+      </c>
+      <c r="M16" t="s">
+        <v>108</v>
+      </c>
+      <c r="O16">
+        <v>17</v>
+      </c>
+      <c r="P16" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>103</v>
+      </c>
+      <c r="R16" t="s">
+        <v>2</v>
+      </c>
+      <c r="S16" t="s">
+        <v>104</v>
+      </c>
+      <c r="T16" t="s">
+        <v>105</v>
+      </c>
+      <c r="U16" t="s">
+        <v>38</v>
+      </c>
+      <c r="V16" t="s">
+        <v>106</v>
+      </c>
+      <c r="W16" t="s">
+        <v>107</v>
+      </c>
+      <c r="X16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" t="s">
+        <v>110</v>
+      </c>
+      <c r="G17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I17" t="s">
+        <v>112</v>
+      </c>
+      <c r="J17" t="s">
+        <v>113</v>
+      </c>
+      <c r="K17" t="s">
+        <v>114</v>
+      </c>
+      <c r="L17" t="s">
+        <v>115</v>
+      </c>
+      <c r="M17" t="s">
+        <v>49</v>
+      </c>
+      <c r="O17">
+        <v>18</v>
+      </c>
+      <c r="P17" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>110</v>
+      </c>
+      <c r="R17" t="s">
+        <v>11</v>
+      </c>
+      <c r="S17" t="s">
+        <v>111</v>
+      </c>
+      <c r="T17" t="s">
+        <v>112</v>
+      </c>
+      <c r="U17" t="s">
+        <v>113</v>
+      </c>
+      <c r="V17" t="s">
+        <v>114</v>
+      </c>
+      <c r="W17" t="s">
+        <v>115</v>
+      </c>
+      <c r="X17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>19</v>
+      </c>
+      <c r="E18" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" t="s">
+        <v>117</v>
+      </c>
+      <c r="G18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" t="s">
+        <v>118</v>
+      </c>
+      <c r="I18" t="s">
+        <v>119</v>
+      </c>
+      <c r="J18" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18" t="s">
+        <v>120</v>
+      </c>
+      <c r="L18" t="s">
+        <v>121</v>
+      </c>
+      <c r="M18" t="s">
+        <v>122</v>
+      </c>
+      <c r="O18">
+        <v>19</v>
+      </c>
+      <c r="P18" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>117</v>
+      </c>
+      <c r="R18" t="s">
+        <v>2</v>
+      </c>
+      <c r="S18" t="s">
+        <v>118</v>
+      </c>
+      <c r="T18" t="s">
+        <v>119</v>
+      </c>
+      <c r="U18" t="s">
+        <v>38</v>
+      </c>
+      <c r="V18" t="s">
+        <v>120</v>
+      </c>
+      <c r="W18" t="s">
+        <v>121</v>
+      </c>
+      <c r="X18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>20</v>
+      </c>
+      <c r="E19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" t="s">
+        <v>124</v>
+      </c>
+      <c r="G19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" t="s">
+        <v>125</v>
+      </c>
+      <c r="I19" t="s">
+        <v>126</v>
+      </c>
+      <c r="J19" t="s">
+        <v>46</v>
+      </c>
+      <c r="K19" t="s">
+        <v>127</v>
+      </c>
+      <c r="L19" t="s">
+        <v>128</v>
+      </c>
+      <c r="M19" t="s">
+        <v>129</v>
+      </c>
+      <c r="O19">
+        <v>20</v>
+      </c>
+      <c r="P19" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>124</v>
+      </c>
+      <c r="R19" t="s">
+        <v>11</v>
+      </c>
+      <c r="S19" t="s">
+        <v>125</v>
+      </c>
+      <c r="T19" t="s">
+        <v>126</v>
+      </c>
+      <c r="U19" t="s">
+        <v>46</v>
+      </c>
+      <c r="V19" t="s">
+        <v>127</v>
+      </c>
+      <c r="W19" t="s">
+        <v>128</v>
+      </c>
+      <c r="X19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>20</v>
+      </c>
+      <c r="E20" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" t="s">
+        <v>124</v>
+      </c>
+      <c r="G20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" t="s">
+        <v>125</v>
+      </c>
+      <c r="I20" t="s">
+        <v>126</v>
+      </c>
+      <c r="J20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K20" t="s">
+        <v>127</v>
+      </c>
+      <c r="L20" t="s">
+        <v>128</v>
+      </c>
+      <c r="M20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" t="s">
+        <v>124</v>
+      </c>
+      <c r="G21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" t="s">
+        <v>125</v>
+      </c>
+      <c r="I21" t="s">
+        <v>126</v>
+      </c>
+      <c r="J21" t="s">
+        <v>46</v>
+      </c>
+      <c r="K21" t="s">
+        <v>127</v>
+      </c>
+      <c r="L21" t="s">
+        <v>128</v>
+      </c>
+      <c r="M21" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>20</v>
+      </c>
+      <c r="E22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" t="s">
+        <v>124</v>
+      </c>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" t="s">
+        <v>125</v>
+      </c>
+      <c r="I22" t="s">
+        <v>126</v>
+      </c>
+      <c r="J22" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" t="s">
+        <v>127</v>
+      </c>
+      <c r="L22" t="s">
+        <v>128</v>
+      </c>
+      <c r="M22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24" t="s">
         <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" t="s">
+        <v>6</v>
+      </c>
+      <c r="L24" t="s">
+        <v>7</v>
+      </c>
+      <c r="M24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" t="s">
+        <v>14</v>
+      </c>
+      <c r="K25" t="s">
+        <v>15</v>
+      </c>
+      <c r="L25" t="s">
+        <v>16</v>
+      </c>
+      <c r="M25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>6</v>
+      </c>
+      <c r="E26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" t="s">
+        <v>22</v>
+      </c>
+      <c r="K26" t="s">
+        <v>23</v>
+      </c>
+      <c r="L26" t="s">
+        <v>24</v>
+      </c>
+      <c r="M26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" t="s">
+        <v>31</v>
+      </c>
+      <c r="L27" t="s">
+        <v>32</v>
+      </c>
+      <c r="M27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" t="s">
+        <v>36</v>
+      </c>
+      <c r="I28" t="s">
+        <v>37</v>
+      </c>
+      <c r="J28" t="s">
+        <v>38</v>
+      </c>
+      <c r="K28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L28" t="s">
+        <v>40</v>
+      </c>
+      <c r="M28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" t="s">
+        <v>43</v>
+      </c>
+      <c r="G29" t="s">
+        <v>2</v>
+      </c>
+      <c r="H29" t="s">
+        <v>44</v>
+      </c>
+      <c r="I29" t="s">
+        <v>45</v>
+      </c>
+      <c r="J29" t="s">
+        <v>46</v>
+      </c>
+      <c r="K29" t="s">
+        <v>47</v>
+      </c>
+      <c r="L29" t="s">
+        <v>48</v>
+      </c>
+      <c r="M29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>10</v>
+      </c>
+      <c r="E30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" t="s">
+        <v>51</v>
+      </c>
+      <c r="G30" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" t="s">
+        <v>52</v>
+      </c>
+      <c r="I30" t="s">
+        <v>53</v>
+      </c>
+      <c r="J30" t="s">
+        <v>38</v>
+      </c>
+      <c r="K30" t="s">
+        <v>54</v>
+      </c>
+      <c r="L30" t="s">
+        <v>55</v>
+      </c>
+      <c r="M30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>11</v>
+      </c>
+      <c r="E31" t="s">
+        <v>57</v>
+      </c>
+      <c r="F31" t="s">
+        <v>58</v>
+      </c>
+      <c r="G31" t="s">
+        <v>2</v>
+      </c>
+      <c r="H31" t="s">
+        <v>59</v>
+      </c>
+      <c r="I31" t="s">
+        <v>60</v>
+      </c>
+      <c r="J31" t="s">
+        <v>61</v>
+      </c>
+      <c r="K31" t="s">
+        <v>62</v>
+      </c>
+      <c r="L31" t="s">
+        <v>63</v>
+      </c>
+      <c r="M31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32" t="s">
+        <v>65</v>
+      </c>
+      <c r="G32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" t="s">
+        <v>66</v>
+      </c>
+      <c r="I32" t="s">
+        <v>67</v>
+      </c>
+      <c r="J32" t="s">
+        <v>68</v>
+      </c>
+      <c r="K32" t="s">
+        <v>69</v>
+      </c>
+      <c r="L32" t="s">
+        <v>70</v>
+      </c>
+      <c r="M32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>13</v>
+      </c>
+      <c r="E33" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" t="s">
+        <v>73</v>
+      </c>
+      <c r="G33" t="s">
+        <v>2</v>
+      </c>
+      <c r="H33" t="s">
+        <v>74</v>
+      </c>
+      <c r="I33" t="s">
+        <v>75</v>
+      </c>
+      <c r="J33" t="s">
+        <v>76</v>
+      </c>
+      <c r="K33" t="s">
+        <v>77</v>
+      </c>
+      <c r="L33" t="s">
+        <v>78</v>
+      </c>
+      <c r="M33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>14</v>
+      </c>
+      <c r="E34" t="s">
+        <v>79</v>
+      </c>
+      <c r="F34" t="s">
+        <v>80</v>
+      </c>
+      <c r="G34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" t="s">
+        <v>81</v>
+      </c>
+      <c r="I34" t="s">
+        <v>82</v>
+      </c>
+      <c r="J34" t="s">
+        <v>38</v>
+      </c>
+      <c r="K34" t="s">
+        <v>83</v>
+      </c>
+      <c r="L34" t="s">
+        <v>84</v>
+      </c>
+      <c r="M34" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>15</v>
+      </c>
+      <c r="E35" t="s">
+        <v>86</v>
+      </c>
+      <c r="F35" t="s">
+        <v>87</v>
+      </c>
+      <c r="G35" t="s">
+        <v>2</v>
+      </c>
+      <c r="H35" t="s">
+        <v>88</v>
+      </c>
+      <c r="I35" t="s">
+        <v>89</v>
+      </c>
+      <c r="J35" t="s">
+        <v>90</v>
+      </c>
+      <c r="K35" t="s">
+        <v>91</v>
+      </c>
+      <c r="L35" t="s">
+        <v>92</v>
+      </c>
+      <c r="M35" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>16</v>
+      </c>
+      <c r="E36" t="s">
+        <v>94</v>
+      </c>
+      <c r="F36" t="s">
+        <v>95</v>
+      </c>
+      <c r="G36" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" t="s">
+        <v>96</v>
+      </c>
+      <c r="I36" t="s">
+        <v>97</v>
+      </c>
+      <c r="J36" t="s">
+        <v>98</v>
+      </c>
+      <c r="K36" t="s">
+        <v>99</v>
+      </c>
+      <c r="L36" t="s">
+        <v>100</v>
+      </c>
+      <c r="M36" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>17</v>
+      </c>
+      <c r="E37" t="s">
+        <v>102</v>
+      </c>
+      <c r="F37" t="s">
+        <v>103</v>
+      </c>
+      <c r="G37" t="s">
+        <v>2</v>
+      </c>
+      <c r="H37" t="s">
+        <v>104</v>
+      </c>
+      <c r="I37" t="s">
+        <v>105</v>
+      </c>
+      <c r="J37" t="s">
+        <v>38</v>
+      </c>
+      <c r="K37" t="s">
+        <v>106</v>
+      </c>
+      <c r="L37" t="s">
+        <v>107</v>
+      </c>
+      <c r="M37" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>18</v>
+      </c>
+      <c r="E38" t="s">
+        <v>109</v>
+      </c>
+      <c r="F38" t="s">
+        <v>110</v>
+      </c>
+      <c r="G38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" t="s">
+        <v>111</v>
+      </c>
+      <c r="I38" t="s">
+        <v>112</v>
+      </c>
+      <c r="J38" t="s">
+        <v>113</v>
+      </c>
+      <c r="K38" t="s">
+        <v>114</v>
+      </c>
+      <c r="L38" t="s">
+        <v>115</v>
+      </c>
+      <c r="M38" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>19</v>
+      </c>
+      <c r="E39" t="s">
+        <v>116</v>
+      </c>
+      <c r="F39" t="s">
+        <v>117</v>
+      </c>
+      <c r="G39" t="s">
+        <v>2</v>
+      </c>
+      <c r="H39" t="s">
+        <v>118</v>
+      </c>
+      <c r="I39" t="s">
+        <v>119</v>
+      </c>
+      <c r="J39" t="s">
+        <v>38</v>
+      </c>
+      <c r="K39" t="s">
+        <v>120</v>
+      </c>
+      <c r="L39" t="s">
+        <v>121</v>
+      </c>
+      <c r="M39" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>20</v>
+      </c>
+      <c r="E40" t="s">
+        <v>123</v>
+      </c>
+      <c r="F40" t="s">
+        <v>124</v>
+      </c>
+      <c r="G40" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" t="s">
+        <v>125</v>
+      </c>
+      <c r="I40" t="s">
+        <v>126</v>
+      </c>
+      <c r="J40" t="s">
+        <v>46</v>
+      </c>
+      <c r="K40" t="s">
+        <v>127</v>
+      </c>
+      <c r="L40" t="s">
+        <v>128</v>
+      </c>
+      <c r="M40" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>20</v>
+      </c>
+      <c r="E41" t="s">
+        <v>123</v>
+      </c>
+      <c r="F41" t="s">
+        <v>124</v>
+      </c>
+      <c r="G41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" t="s">
+        <v>125</v>
+      </c>
+      <c r="I41" t="s">
+        <v>126</v>
+      </c>
+      <c r="J41" t="s">
+        <v>46</v>
+      </c>
+      <c r="K41" t="s">
+        <v>127</v>
+      </c>
+      <c r="L41" t="s">
+        <v>128</v>
+      </c>
+      <c r="M41" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
